--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.98662959440384</v>
+        <v>9.825263333333334</v>
       </c>
       <c r="H2">
-        <v>4.98662959440384</v>
+        <v>29.47579</v>
       </c>
       <c r="I2">
-        <v>0.01346461670467184</v>
+        <v>0.02592230525843099</v>
       </c>
       <c r="J2">
-        <v>0.01346461670467184</v>
+        <v>0.025922305258431</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N2">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O2">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P2">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q2">
-        <v>166.1454446074521</v>
+        <v>328.3385834929456</v>
       </c>
       <c r="R2">
-        <v>166.1454446074521</v>
+        <v>2955.047251436511</v>
       </c>
       <c r="S2">
-        <v>0.002143501167099868</v>
+        <v>0.004077037304760262</v>
       </c>
       <c r="T2">
-        <v>0.002143501167099868</v>
+        <v>0.004077037304760262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.98662959440384</v>
+        <v>9.825263333333334</v>
       </c>
       <c r="H3">
-        <v>4.98662959440384</v>
+        <v>29.47579</v>
       </c>
       <c r="I3">
-        <v>0.01346461670467184</v>
+        <v>0.02592230525843099</v>
       </c>
       <c r="J3">
-        <v>0.01346461670467184</v>
+        <v>0.025922305258431</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N3">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O3">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P3">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q3">
-        <v>180.8678105594044</v>
+        <v>357.4996342824134</v>
       </c>
       <c r="R3">
-        <v>180.8678105594044</v>
+        <v>3217.496708541721</v>
       </c>
       <c r="S3">
-        <v>0.002333439619370053</v>
+        <v>0.004439135144891874</v>
       </c>
       <c r="T3">
-        <v>0.002333439619370053</v>
+        <v>0.004439135144891874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.98662959440384</v>
+        <v>9.825263333333334</v>
       </c>
       <c r="H4">
-        <v>4.98662959440384</v>
+        <v>29.47579</v>
       </c>
       <c r="I4">
-        <v>0.01346461670467184</v>
+        <v>0.02592230525843099</v>
       </c>
       <c r="J4">
-        <v>0.01346461670467184</v>
+        <v>0.025922305258431</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N4">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O4">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P4">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q4">
-        <v>337.4988946497222</v>
+        <v>680.5604498474356</v>
       </c>
       <c r="R4">
-        <v>337.4988946497222</v>
+        <v>6125.044048626921</v>
       </c>
       <c r="S4">
-        <v>0.004354192655030802</v>
+        <v>0.008450637487238944</v>
       </c>
       <c r="T4">
-        <v>0.004354192655030802</v>
+        <v>0.008450637487238942</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.98662959440384</v>
+        <v>9.825263333333334</v>
       </c>
       <c r="H5">
-        <v>4.98662959440384</v>
+        <v>29.47579</v>
       </c>
       <c r="I5">
-        <v>0.01346461670467184</v>
+        <v>0.02592230525843099</v>
       </c>
       <c r="J5">
-        <v>0.01346461670467184</v>
+        <v>0.025922305258431</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N5">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O5">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P5">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q5">
-        <v>342.2033264856223</v>
+        <v>687.4725226024356</v>
       </c>
       <c r="R5">
-        <v>342.2033264856223</v>
+        <v>6187.252703421921</v>
       </c>
       <c r="S5">
-        <v>0.004414886194685884</v>
+        <v>0.008536465896972449</v>
       </c>
       <c r="T5">
-        <v>0.004414886194685884</v>
+        <v>0.008536465896972451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.98662959440384</v>
+        <v>9.825263333333334</v>
       </c>
       <c r="H6">
-        <v>4.98662959440384</v>
+        <v>29.47579</v>
       </c>
       <c r="I6">
-        <v>0.01346461670467184</v>
+        <v>0.02592230525843099</v>
       </c>
       <c r="J6">
-        <v>0.01346461670467184</v>
+        <v>0.025922305258431</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.39783227538664</v>
+        <v>3.434611</v>
       </c>
       <c r="N6">
-        <v>3.39783227538664</v>
+        <v>10.303833</v>
       </c>
       <c r="O6">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="P6">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="Q6">
-        <v>16.94373098126356</v>
+        <v>33.74595752256334</v>
       </c>
       <c r="R6">
-        <v>16.94373098126356</v>
+        <v>303.71361770307</v>
       </c>
       <c r="S6">
-        <v>0.0002185970684852326</v>
+        <v>0.000419029424567466</v>
       </c>
       <c r="T6">
-        <v>0.0002185970684852326</v>
+        <v>0.0004190294245674661</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>354.03264479972</v>
+        <v>354.6021423333333</v>
       </c>
       <c r="H7">
-        <v>354.03264479972</v>
+        <v>1063.806427</v>
       </c>
       <c r="I7">
-        <v>0.9559390311482228</v>
+        <v>0.9355581287753368</v>
       </c>
       <c r="J7">
-        <v>0.9559390311482228</v>
+        <v>0.935558128775337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N7">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O7">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P7">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q7">
-        <v>11795.72496056503</v>
+        <v>11850.01980784473</v>
       </c>
       <c r="R7">
-        <v>11795.72496056503</v>
+        <v>106650.1782706026</v>
       </c>
       <c r="S7">
-        <v>0.1521808213249449</v>
+        <v>0.1471437572300089</v>
       </c>
       <c r="T7">
-        <v>0.1521808213249449</v>
+        <v>0.1471437572300089</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>354.03264479972</v>
+        <v>354.6021423333333</v>
       </c>
       <c r="H8">
-        <v>354.03264479972</v>
+        <v>1063.806427</v>
       </c>
       <c r="I8">
-        <v>0.9559390311482228</v>
+        <v>0.9355581287753368</v>
       </c>
       <c r="J8">
-        <v>0.9559390311482228</v>
+        <v>0.935558128775337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N8">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O8">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P8">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q8">
-        <v>12840.95963400625</v>
+        <v>12902.46702801794</v>
       </c>
       <c r="R8">
-        <v>12840.95963400625</v>
+        <v>116122.2032521614</v>
       </c>
       <c r="S8">
-        <v>0.1656657636759554</v>
+        <v>0.16021217743299</v>
       </c>
       <c r="T8">
-        <v>0.1656657636759554</v>
+        <v>0.16021217743299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>354.03264479972</v>
+        <v>354.6021423333333</v>
       </c>
       <c r="H9">
-        <v>354.03264479972</v>
+        <v>1063.806427</v>
       </c>
       <c r="I9">
-        <v>0.9559390311482228</v>
+        <v>0.9355581287753368</v>
       </c>
       <c r="J9">
-        <v>0.9559390311482228</v>
+        <v>0.935558128775337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N9">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O9">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P9">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q9">
-        <v>23961.19944900538</v>
+        <v>24562.00768528047</v>
       </c>
       <c r="R9">
-        <v>23961.19944900538</v>
+        <v>221058.0691675242</v>
       </c>
       <c r="S9">
-        <v>0.3091319121352068</v>
+        <v>0.3049907219169332</v>
       </c>
       <c r="T9">
-        <v>0.3091319121352068</v>
+        <v>0.304990721916933</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>354.03264479972</v>
+        <v>354.6021423333333</v>
       </c>
       <c r="H10">
-        <v>354.03264479972</v>
+        <v>1063.806427</v>
       </c>
       <c r="I10">
-        <v>0.9559390311482228</v>
+        <v>0.9355581287753368</v>
       </c>
       <c r="J10">
-        <v>0.9559390311482228</v>
+        <v>0.935558128775337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N10">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O10">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P10">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q10">
-        <v>24295.19707477907</v>
+        <v>24811.47029241197</v>
       </c>
       <c r="R10">
-        <v>24295.19707477907</v>
+        <v>223303.2326317077</v>
       </c>
       <c r="S10">
-        <v>0.3134409336816355</v>
+        <v>0.3080883425029698</v>
       </c>
       <c r="T10">
-        <v>0.3134409336816355</v>
+        <v>0.3080883425029698</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>354.03264479972</v>
+        <v>354.6021423333333</v>
       </c>
       <c r="H11">
-        <v>354.03264479972</v>
+        <v>1063.806427</v>
       </c>
       <c r="I11">
-        <v>0.9559390311482228</v>
+        <v>0.9355581287753368</v>
       </c>
       <c r="J11">
-        <v>0.9559390311482228</v>
+        <v>0.935558128775337</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.39783227538664</v>
+        <v>3.434611</v>
       </c>
       <c r="N11">
-        <v>3.39783227538664</v>
+        <v>10.303833</v>
       </c>
       <c r="O11">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="P11">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="Q11">
-        <v>1202.943547040983</v>
+        <v>1217.920418681633</v>
       </c>
       <c r="R11">
-        <v>1202.943547040983</v>
+        <v>10961.28376813469</v>
       </c>
       <c r="S11">
-        <v>0.01551960033048025</v>
+        <v>0.01512312969243512</v>
       </c>
       <c r="T11">
-        <v>0.01551960033048025</v>
+        <v>0.01512312969243512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>11.3313790094462</v>
+        <v>0.04997166666666666</v>
       </c>
       <c r="H12">
-        <v>11.3313790094462</v>
+        <v>0.149915</v>
       </c>
       <c r="I12">
-        <v>0.03059635214710538</v>
+        <v>0.0001318418401277008</v>
       </c>
       <c r="J12">
-        <v>0.03059635214710538</v>
+        <v>0.0001318418401277008</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N12">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O12">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P12">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q12">
-        <v>377.5409759033976</v>
+        <v>1.669942645959445</v>
       </c>
       <c r="R12">
-        <v>377.5409759033976</v>
+        <v>15.029483813635</v>
       </c>
       <c r="S12">
-        <v>0.0048707897131274</v>
+        <v>2.073596831647717E-05</v>
       </c>
       <c r="T12">
-        <v>0.0048707897131274</v>
+        <v>2.073596831647717E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>11.3313790094462</v>
+        <v>0.04997166666666666</v>
       </c>
       <c r="H13">
-        <v>11.3313790094462</v>
+        <v>0.149915</v>
       </c>
       <c r="I13">
-        <v>0.03059635214710538</v>
+        <v>0.0001318418401277008</v>
       </c>
       <c r="J13">
-        <v>0.03059635214710538</v>
+        <v>0.0001318418401277008</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N13">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O13">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P13">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q13">
-        <v>410.9953773902363</v>
+        <v>1.818256870246667</v>
       </c>
       <c r="R13">
-        <v>410.9953773902363</v>
+        <v>16.36431183222</v>
       </c>
       <c r="S13">
-        <v>0.005302396783673889</v>
+        <v>2.257761183827355E-05</v>
       </c>
       <c r="T13">
-        <v>0.005302396783673889</v>
+        <v>2.257761183827355E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>11.3313790094462</v>
+        <v>0.04997166666666666</v>
       </c>
       <c r="H14">
-        <v>11.3313790094462</v>
+        <v>0.149915</v>
       </c>
       <c r="I14">
-        <v>0.03059635214710538</v>
+        <v>0.0001318418401277008</v>
       </c>
       <c r="J14">
-        <v>0.03059635214710538</v>
+        <v>0.0001318418401277008</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N14">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O14">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P14">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q14">
-        <v>766.9163747066642</v>
+        <v>3.461356585824444</v>
       </c>
       <c r="R14">
-        <v>766.9163747066642</v>
+        <v>31.15220927242</v>
       </c>
       <c r="S14">
-        <v>0.00989425950338696</v>
+        <v>4.298026681895298E-05</v>
       </c>
       <c r="T14">
-        <v>0.00989425950338696</v>
+        <v>4.298026681895298E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>11.3313790094462</v>
+        <v>0.04997166666666666</v>
       </c>
       <c r="H15">
-        <v>11.3313790094462</v>
+        <v>0.149915</v>
       </c>
       <c r="I15">
-        <v>0.03059635214710538</v>
+        <v>0.0001318418401277008</v>
       </c>
       <c r="J15">
-        <v>0.03059635214710538</v>
+        <v>0.0001318418401277008</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N15">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O15">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P15">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q15">
-        <v>777.606501002893</v>
+        <v>3.496511653324444</v>
       </c>
       <c r="R15">
-        <v>777.606501002893</v>
+        <v>31.46860487992</v>
       </c>
       <c r="S15">
-        <v>0.01003217660515614</v>
+        <v>4.341679340722079E-05</v>
       </c>
       <c r="T15">
-        <v>0.01003217660515614</v>
+        <v>4.34167934072208E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04997166666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.149915</v>
+      </c>
+      <c r="I16">
+        <v>0.0001318418401277008</v>
+      </c>
+      <c r="J16">
+        <v>0.0001318418401277008</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.434611</v>
+      </c>
+      <c r="N16">
+        <v>10.303833</v>
+      </c>
+      <c r="O16">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="P16">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="Q16">
+        <v>0.1716332360216667</v>
+      </c>
+      <c r="R16">
+        <v>1.544699124195</v>
+      </c>
+      <c r="S16">
+        <v>2.131199746776309E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.131199746776309E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>14.54999833333333</v>
+      </c>
+      <c r="H17">
+        <v>43.649995</v>
+      </c>
+      <c r="I17">
+        <v>0.03838772412610439</v>
+      </c>
+      <c r="J17">
+        <v>0.0383877241261044</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.41778966666667</v>
+      </c>
+      <c r="N17">
+        <v>100.253369</v>
+      </c>
+      <c r="O17">
+        <v>0.1572791178915017</v>
+      </c>
+      <c r="P17">
+        <v>0.1572791178915016</v>
+      </c>
+      <c r="Q17">
+        <v>486.228783953684</v>
+      </c>
+      <c r="R17">
+        <v>4376.059055583156</v>
+      </c>
+      <c r="S17">
+        <v>0.006037587388416015</v>
+      </c>
+      <c r="T17">
+        <v>0.006037587388416015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>14.54999833333333</v>
+      </c>
+      <c r="H18">
+        <v>43.649995</v>
+      </c>
+      <c r="I18">
+        <v>0.03838772412610439</v>
+      </c>
+      <c r="J18">
+        <v>0.0383877241261044</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>36.385756</v>
+      </c>
+      <c r="N18">
+        <v>109.157268</v>
+      </c>
+      <c r="O18">
+        <v>0.1712476996407596</v>
+      </c>
+      <c r="P18">
+        <v>0.1712476996407596</v>
+      </c>
+      <c r="Q18">
+        <v>529.4126891570734</v>
+      </c>
+      <c r="R18">
+        <v>4764.71420241366</v>
+      </c>
+      <c r="S18">
+        <v>0.006573809451039466</v>
+      </c>
+      <c r="T18">
+        <v>0.006573809451039466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>14.54999833333333</v>
+      </c>
+      <c r="H19">
+        <v>43.649995</v>
+      </c>
+      <c r="I19">
+        <v>0.03838772412610439</v>
+      </c>
+      <c r="J19">
+        <v>0.0383877241261044</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>69.26638266666667</v>
+      </c>
+      <c r="N19">
+        <v>207.799148</v>
+      </c>
+      <c r="O19">
+        <v>0.3259986873463135</v>
+      </c>
+      <c r="P19">
+        <v>0.3259986873463134</v>
+      </c>
+      <c r="Q19">
+        <v>1007.825752356029</v>
+      </c>
+      <c r="R19">
+        <v>9070.431771204261</v>
+      </c>
+      <c r="S19">
+        <v>0.01251434767532244</v>
+      </c>
+      <c r="T19">
+        <v>0.01251434767532244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>11.3313790094462</v>
-      </c>
-      <c r="H16">
-        <v>11.3313790094462</v>
-      </c>
-      <c r="I16">
-        <v>0.03059635214710538</v>
-      </c>
-      <c r="J16">
-        <v>0.03059635214710538</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.39783227538664</v>
-      </c>
-      <c r="N16">
-        <v>3.39783227538664</v>
-      </c>
-      <c r="O16">
-        <v>0.01623492694072648</v>
-      </c>
-      <c r="P16">
-        <v>0.01623492694072648</v>
-      </c>
-      <c r="Q16">
-        <v>38.50212532293499</v>
-      </c>
-      <c r="R16">
-        <v>38.50212532293499</v>
-      </c>
-      <c r="S16">
-        <v>0.0004967295417609954</v>
-      </c>
-      <c r="T16">
-        <v>0.0004967295417609954</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>14.54999833333333</v>
+      </c>
+      <c r="H20">
+        <v>43.649995</v>
+      </c>
+      <c r="I20">
+        <v>0.03838772412610439</v>
+      </c>
+      <c r="J20">
+        <v>0.0383877241261044</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>69.96988266666666</v>
+      </c>
+      <c r="N20">
+        <v>209.909648</v>
+      </c>
+      <c r="O20">
+        <v>0.3293096741153468</v>
+      </c>
+      <c r="P20">
+        <v>0.3293096741153467</v>
+      </c>
+      <c r="Q20">
+        <v>1018.061676183529</v>
+      </c>
+      <c r="R20">
+        <v>9162.55508565176</v>
+      </c>
+      <c r="S20">
+        <v>0.01264144892199727</v>
+      </c>
+      <c r="T20">
+        <v>0.01264144892199727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>14.54999833333333</v>
+      </c>
+      <c r="H21">
+        <v>43.649995</v>
+      </c>
+      <c r="I21">
+        <v>0.03838772412610439</v>
+      </c>
+      <c r="J21">
+        <v>0.0383877241261044</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.434611</v>
+      </c>
+      <c r="N21">
+        <v>10.303833</v>
+      </c>
+      <c r="O21">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="P21">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="Q21">
+        <v>49.97358432564834</v>
+      </c>
+      <c r="R21">
+        <v>449.7622589308351</v>
+      </c>
+      <c r="S21">
+        <v>0.000620530689329201</v>
+      </c>
+      <c r="T21">
+        <v>0.000620530689329201</v>
       </c>
     </row>
   </sheetData>
